--- a/test-data/page-options-data.xlsx
+++ b/test-data/page-options-data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F095E312-B09E-401B-9E01-ED0042658FD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7A7BBB-D636-9947-86FF-25981E787249}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46580" yWindow="2520" windowWidth="28320" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pages_with_pageoptions" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="45">
   <si>
     <t>path</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Spanish</t>
   </si>
   <si>
-    <t>CancerCenter</t>
-  </si>
-  <si>
     <t>/about-cancer/coping/feelings/relaxation/loukissas-jennifer</t>
   </si>
   <si>
@@ -81,7 +78,85 @@
     <t>Home &amp; Landing</t>
   </si>
   <si>
-    <t>/espanol/tipos</t>
+    <t>/news-events/cancer-currents-blog</t>
+  </si>
+  <si>
+    <t>Blog Series</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/temas-y-relatos-blog</t>
+  </si>
+  <si>
+    <t>/types/breast</t>
+  </si>
+  <si>
+    <t>CTHP</t>
+  </si>
+  <si>
+    <t>/espanol/tipos/seno</t>
+  </si>
+  <si>
+    <t>Home&amp; Landing</t>
+  </si>
+  <si>
+    <t>/espanol/cancer</t>
+  </si>
+  <si>
+    <t>/news-events/press-releases/2019</t>
+  </si>
+  <si>
+    <t>Mini Landing Page</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/comunicados-de-prensa/2019</t>
+  </si>
+  <si>
+    <t>/about-nci/organization/nci-at-a-glance</t>
+  </si>
+  <si>
+    <t>Infographic</t>
+  </si>
+  <si>
+    <t>/espanol/infografia-nci</t>
+  </si>
+  <si>
+    <t>/about-cancer/coping/feelings/relaxation/hedge-maze</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>/about-cancer/coping/feelings/relaxation/loukissas-jen-biography</t>
+  </si>
+  <si>
+    <t>/news-events/cancer-currents-blog/2019/hpv-vaccine-presidents-cancer-panel-improving-uptake</t>
+  </si>
+  <si>
+    <t>Blog Post</t>
+  </si>
+  <si>
+    <t>/espanol/node/146/2017/tobacco-corrective-es</t>
+  </si>
+  <si>
+    <t>/types/breast/research</t>
+  </si>
+  <si>
+    <t>Cancer Research List Page</t>
+  </si>
+  <si>
+    <t>/espanol/tipos/seno/investigacion</t>
+  </si>
+  <si>
+    <t>Cancer Center</t>
+  </si>
+  <si>
+    <t>/news-events/press-releases/2019/annual-report-nation-2018</t>
+  </si>
+  <si>
+    <t>Press Release</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/comunicados-de-prensa/2019/informe-anual-a-la-nacion-1975-2014</t>
   </si>
 </sst>
 </file>
@@ -409,19 +484,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="62" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -438,7 +513,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -448,14 +523,8 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -465,49 +534,255 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -515,20 +790,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887321EA-66E5-437B-9E82-0613112B40E5}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection sqref="A1:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="52.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -539,7 +814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -550,7 +825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -561,28 +836,129 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -591,82 +967,148 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550C9103-3B9D-4803-8025-F0900931F8E9}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="61.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="61.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/test-data/page-options-data.xlsx
+++ b/test-data/page-options-data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7A7BBB-D636-9947-86FF-25981E787249}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33569A39-CA24-0642-B32F-852E54CCD834}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46580" yWindow="2520" windowWidth="28320" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7700" yWindow="2120" windowWidth="28320" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pages_with_pageoptions" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>Blog Post</t>
   </si>
   <si>
-    <t>/espanol/node/146/2017/tobacco-corrective-es</t>
-  </si>
-  <si>
     <t>/types/breast/research</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>/espanol/noticias/comunicados-de-prensa/2019/informe-anual-a-la-nacion-1975-2014</t>
+  </si>
+  <si>
+    <t>espanol/news-events/cancer-currents-blog/2017/tobacco-corrective-es</t>
   </si>
 </sst>
 </file>
@@ -484,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A26" sqref="A26:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -559,7 +559,7 @@
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>36</v>
@@ -570,10 +570,10 @@
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -581,10 +581,10 @@
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
@@ -595,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
@@ -614,10 +614,10 @@
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
@@ -625,10 +625,10 @@
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -777,12 +777,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -790,15 +784,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887321EA-66E5-437B-9E82-0613112B40E5}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD16"/>
+      <selection activeCell="A15" sqref="A15:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.33203125" customWidth="1"/>
+    <col min="1" max="1" width="76.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
   </cols>
@@ -860,7 +854,7 @@
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>36</v>
@@ -871,10 +865,10 @@
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -882,10 +876,10 @@
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
@@ -896,7 +890,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
@@ -915,10 +909,10 @@
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
@@ -926,10 +920,10 @@
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -957,8 +951,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -970,7 +962,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/test-data/page-options-data.xlsx
+++ b/test-data/page-options-data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33569A39-CA24-0642-B32F-852E54CCD834}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9DA9CC-4114-0441-8766-ACDF2678BB7C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7700" yWindow="2120" windowWidth="28320" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40280" yWindow="1860" windowWidth="28320" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pages_with_pageoptions" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
     <t>/espanol/noticias/comunicados-de-prensa/2019/informe-anual-a-la-nacion-1975-2014</t>
   </si>
   <si>
-    <t>espanol/news-events/cancer-currents-blog/2017/tobacco-corrective-es</t>
+    <t>espanol/noticias/temas-y-relatos-blog/2017/tobacco-corrective-es</t>
   </si>
 </sst>
 </file>
@@ -486,13 +486,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD33"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62" customWidth="1"/>
+    <col min="1" max="1" width="82.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -787,7 +787,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD25"/>
+      <selection activeCell="A14" sqref="A1:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550C9103-3B9D-4803-8025-F0900931F8E9}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A1:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
